--- a/query_processor/data_source/docs/LetterMaintenancePayment.xlsx
+++ b/query_processor/data_source/docs/LetterMaintenancePayment.xlsx
@@ -516,22 +516,22 @@
       <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.15"/>
@@ -1544,7 +1544,7 @@
         <v>4900</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>490023</v>
+        <v>1700</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>80</v>
@@ -1581,19 +1581,19 @@
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="14.15"/>

--- a/query_processor/data_source/docs/LetterMaintenancePayment.xlsx
+++ b/query_processor/data_source/docs/LetterMaintenancePayment.xlsx
@@ -512,26 +512,26 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.15"/>
@@ -1575,25 +1575,25 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="14.15"/>
